--- a/src/test/resources/testdata/WebAutomationTestData.xlsx
+++ b/src/test/resources/testdata/WebAutomationTestData.xlsx
@@ -48,10 +48,10 @@
     <t>UserPermission</t>
   </si>
   <si>
-    <t>searchDocument_isEditable</t>
-  </si>
-  <si>
     <t>missingClient_isEditable</t>
+  </si>
+  <si>
+    <t>search_isEditable</t>
   </si>
 </sst>
 </file>
@@ -386,7 +386,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,10 +410,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
